--- a/Data dictionary_updated.xlsx
+++ b/Data dictionary_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/vl22683_bristol_ac_uk/Documents/Documents/PhD Papers/Paper 3a - Ukraine Sex Work HIV/code/SW code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{A9826682-CC6A-40A8-9786-C52F8C08DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AA58E5-F6C0-4EE0-AF84-443D41CB5749}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{A9826682-CC6A-40A8-9786-C52F8C08DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA278329-D93E-48C3-A26A-D3A9F5F262F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A93D0E0D-36F4-443B-B19A-182A746FE88E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A93D0E0D-36F4-443B-B19A-182A746FE88E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>tc={2DDE62C7-9516-3948-870A-8F3BCEE01BCE}</author>
   </authors>
   <commentList>
-    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{B0C76089-3C7D-9641-B658-8682D5431C17}">
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{B0C76089-3C7D-9641-B658-8682D5431C17}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
     For sex workers or Injecting?</t>
       </text>
     </comment>
-    <comment ref="A104" authorId="1" shapeId="0" xr:uid="{2DDE62C7-9516-3948-870A-8F3BCEE01BCE}">
+    <comment ref="A105" authorId="1" shapeId="0" xr:uid="{2DDE62C7-9516-3948-870A-8F3BCEE01BCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,9 +67,36 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B93C67D9-821C-4912-8049-55FB5F605753}</author>
+    <author>tc={73B78FAF-01DF-42CF-AFC0-B461E966DFE4}</author>
+    <author>tc={CE81757A-6FE0-459E-9695-6F67A4AE0587}</author>
+    <author>tc={18FE5719-5E36-4E19-8916-BFFF1A9905CD}</author>
   </authors>
   <commentList>
     <comment ref="E39" authorId="0" shapeId="0" xr:uid="{B93C67D9-821C-4912-8049-55FB5F605753}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there EVER ART Too?</t>
+      </text>
+    </comment>
+    <comment ref="S61" authorId="1" shapeId="0" xr:uid="{73B78FAF-01DF-42CF-AFC0-B461E966DFE4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there EVER ART Too?</t>
+      </text>
+    </comment>
+    <comment ref="W67" authorId="2" shapeId="0" xr:uid="{CE81757A-6FE0-459E-9695-6F67A4AE0587}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there EVER ART Too?</t>
+      </text>
+    </comment>
+    <comment ref="X67" authorId="3" shapeId="0" xr:uid="{18FE5719-5E36-4E19-8916-BFFF1A9905CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="264">
   <si>
     <t>Variable</t>
   </si>
@@ -1014,6 +1041,12 @@
   <si>
     <t>No
 Yes</t>
+  </si>
+  <si>
+    <t>client_condom_bin_30d</t>
+  </si>
+  <si>
+    <t>Ever did not use condom last 30 days</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1468,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B66" dT="2025-06-13T09:16:20.64" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{B0C76089-3C7D-9641-B658-8682D5431C17}">
+  <threadedComment ref="B67" dT="2025-06-13T09:16:20.64" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{B0C76089-3C7D-9641-B658-8682D5431C17}">
     <text>For sex workers or Injecting?</text>
   </threadedComment>
-  <threadedComment ref="A104" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{2DDE62C7-9516-3948-870A-8F3BCEE01BCE}">
+  <threadedComment ref="A105" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{2DDE62C7-9516-3948-870A-8F3BCEE01BCE}">
     <text>Is there EVER ART Too?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1449,26 +1482,35 @@
   <threadedComment ref="E39" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{B93C67D9-821C-4912-8049-55FB5F605753}">
     <text>Is there EVER ART Too?</text>
   </threadedComment>
+  <threadedComment ref="S61" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{73B78FAF-01DF-42CF-AFC0-B461E966DFE4}">
+    <text>Is there EVER ART Too?</text>
+  </threadedComment>
+  <threadedComment ref="W67" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{CE81757A-6FE0-459E-9695-6F67A4AE0587}">
+    <text>Is there EVER ART Too?</text>
+  </threadedComment>
+  <threadedComment ref="X67" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{18FE5719-5E36-4E19-8916-BFFF1A9905CD}">
+    <text>Is there EVER ART Too?</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22FADAB-8CEB-4C64-B225-6490F054341E}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" activeCellId="58" sqref="A2 A4 A5 A7 A10 A11 A13 A14:A17 A18 A22 A24 A26:A28 A30 A31 A32 A33 A34 A35 A36 A37 A40 A41 A42 A43 A44 A45 A47 A49 A51 A53 A54 A57 A58 A60 A62 A64 A66 A67 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A101 A102 A103 A104 A105 A106 A107 A108 A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,7 +1542,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>119</v>
       </c>
@@ -1532,7 +1574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1564,7 +1606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -1596,7 +1638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
@@ -1628,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1660,7 +1702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>132</v>
       </c>
@@ -1692,7 +1734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
@@ -1724,7 +1766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>141</v>
       </c>
@@ -1756,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>172</v>
       </c>
@@ -1776,7 +1818,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>134</v>
       </c>
@@ -1840,7 +1882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>178</v>
       </c>
@@ -1872,7 +1914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1904,7 +1946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +2042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2032,7 +2074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>242</v>
       </c>
@@ -2050,7 +2092,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>144</v>
       </c>
@@ -2082,7 +2124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -2146,7 +2188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2210,7 +2252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2242,7 +2284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -2274,7 +2316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
@@ -2306,7 +2348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>138</v>
       </c>
@@ -2338,7 +2380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>136</v>
       </c>
@@ -2370,7 +2412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -2402,88 +2444,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>20</v>
@@ -2498,24 +2524,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>20</v>
@@ -2530,24 +2556,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>20</v>
@@ -2562,24 +2588,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>20</v>
@@ -2594,76 +2620,76 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="363" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="363" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="365.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>186</v>
@@ -2672,435 +2698,435 @@
         <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="365.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="D41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="D42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="D43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>75</v>
+        <v>75</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>187</v>
@@ -3109,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
@@ -3118,36 +3144,36 @@
         <v>20</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>75</v>
@@ -3156,79 +3182,79 @@
         <v>75</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="D56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>187</v>
@@ -3255,12 +3281,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>187</v>
@@ -3268,125 +3294,125 @@
       <c r="D58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>75</v>
+      <c r="E58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="271.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="D60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>187</v>
@@ -3395,36 +3421,36 @@
         <v>20</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
@@ -3436,27 +3462,27 @@
         <v>75</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>75</v>
@@ -3468,27 +3494,27 @@
         <v>75</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>75</v>
@@ -3497,24 +3523,24 @@
         <v>75</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>75</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>187</v>
@@ -3529,24 +3555,24 @@
         <v>75</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>187</v>
@@ -3563,22 +3589,22 @@
       <c r="G67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>75</v>
+      <c r="H67" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>187</v>
@@ -3586,31 +3612,31 @@
       <c r="D68" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>187</v>
@@ -3637,12 +3663,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>187</v>
@@ -3669,12 +3695,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>187</v>
@@ -3701,12 +3727,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>187</v>
@@ -3733,12 +3759,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>187</v>
@@ -3765,12 +3791,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>187</v>
@@ -3797,12 +3823,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>187</v>
@@ -3829,12 +3855,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>187</v>
@@ -3861,12 +3887,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>187</v>
@@ -3893,12 +3919,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>187</v>
@@ -3925,12 +3951,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>187</v>
@@ -3957,12 +3983,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>187</v>
@@ -3976,25 +4002,25 @@
       <c r="F80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>75</v>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>187</v>
@@ -4021,12 +4047,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>187</v>
@@ -4053,12 +4079,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>187</v>
@@ -4085,12 +4111,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>187</v>
@@ -4117,12 +4143,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>187</v>
@@ -4149,12 +4175,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>187</v>
@@ -4181,12 +4207,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>187</v>
@@ -4213,12 +4239,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>187</v>
@@ -4245,12 +4271,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>187</v>
@@ -4277,12 +4303,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>187</v>
@@ -4309,12 +4335,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>187</v>
@@ -4341,12 +4367,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>187</v>
@@ -4373,12 +4399,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>187</v>
@@ -4405,12 +4431,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>187</v>
@@ -4437,12 +4463,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>187</v>
@@ -4469,12 +4495,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>187</v>
@@ -4501,12 +4527,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>187</v>
@@ -4533,12 +4559,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>187</v>
@@ -4565,12 +4591,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>187</v>
@@ -4597,44 +4623,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>187</v>
@@ -4661,12 +4687,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>187</v>
@@ -4693,85 +4719,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="D104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>20</v>
@@ -4789,163 +4815,195 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="D107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="D108" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="D109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="D110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J110" s="4" t="s">
+      <c r="D111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4958,15 +5016,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24693A92-5F3B-475F-94C6-792282596E6B}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8:X71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4977,7 +5035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +5046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4999,7 +5057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -5010,7 +5068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -5035,7 +5093,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -5048,8 +5106,11 @@
       <c r="I7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5062,8 +5123,17 @@
       <c r="I8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5076,8 +5146,17 @@
       <c r="I9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5090,8 +5169,17 @@
       <c r="I10" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -5104,8 +5192,17 @@
       <c r="I11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -5118,8 +5215,17 @@
       <c r="I12" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5132,8 +5238,17 @@
       <c r="I13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -5146,8 +5261,17 @@
       <c r="I14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -5160,8 +5284,17 @@
       <c r="I15" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -5174,8 +5307,17 @@
       <c r="I16" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -5188,8 +5330,17 @@
       <c r="I17" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -5202,8 +5353,17 @@
       <c r="I18" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -5216,8 +5376,17 @@
       <c r="I19" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -5227,8 +5396,17 @@
       <c r="E20" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -5238,8 +5416,17 @@
       <c r="E21" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -5249,8 +5436,17 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -5260,8 +5456,17 @@
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
@@ -5271,8 +5476,17 @@
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -5282,8 +5496,17 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -5293,8 +5516,17 @@
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -5304,8 +5536,17 @@
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -5315,8 +5556,17 @@
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -5326,8 +5576,17 @@
       <c r="E29" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -5337,8 +5596,17 @@
       <c r="E30" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -5348,8 +5616,17 @@
       <c r="E31" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="S31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -5359,8 +5636,17 @@
       <c r="E32" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -5370,8 +5656,17 @@
       <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -5381,62 +5676,441 @@
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W70" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X71" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Data dictionary_updated.xlsx
+++ b/Data dictionary_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/vl22683_bristol_ac_uk/Documents/Documents/PhD Papers/Paper 3a - Ukraine Sex Work HIV/code/SW code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{A9826682-CC6A-40A8-9786-C52F8C08DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA278329-D93E-48C3-A26A-D3A9F5F262F3}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{A9826682-CC6A-40A8-9786-C52F8C08DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9086EBFA-DB81-4ADB-918E-2E11003C39E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A93D0E0D-36F4-443B-B19A-182A746FE88E}"/>
   </bookViews>
@@ -68,8 +68,10 @@
   <authors>
     <author>tc={B93C67D9-821C-4912-8049-55FB5F605753}</author>
     <author>tc={73B78FAF-01DF-42CF-AFC0-B461E966DFE4}</author>
+    <author>tc={6064141D-D7C8-4528-9070-2304117F1031}</author>
     <author>tc={CE81757A-6FE0-459E-9695-6F67A4AE0587}</author>
     <author>tc={18FE5719-5E36-4E19-8916-BFFF1A9905CD}</author>
+    <author>tc={2C23F695-9498-4D71-9E6D-0C1C1B9FA411}</author>
   </authors>
   <commentList>
     <comment ref="E39" authorId="0" shapeId="0" xr:uid="{B93C67D9-821C-4912-8049-55FB5F605753}">
@@ -88,7 +90,7 @@
     Is there EVER ART Too?</t>
       </text>
     </comment>
-    <comment ref="W67" authorId="2" shapeId="0" xr:uid="{CE81757A-6FE0-459E-9695-6F67A4AE0587}">
+    <comment ref="AA66" authorId="2" shapeId="0" xr:uid="{6064141D-D7C8-4528-9070-2304117F1031}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +98,23 @@
     Is there EVER ART Too?</t>
       </text>
     </comment>
-    <comment ref="X67" authorId="3" shapeId="0" xr:uid="{18FE5719-5E36-4E19-8916-BFFF1A9905CD}">
+    <comment ref="W67" authorId="3" shapeId="0" xr:uid="{CE81757A-6FE0-459E-9695-6F67A4AE0587}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there EVER ART Too?</t>
+      </text>
+    </comment>
+    <comment ref="X67" authorId="4" shapeId="0" xr:uid="{18FE5719-5E36-4E19-8916-BFFF1A9905CD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there EVER ART Too?</t>
+      </text>
+    </comment>
+    <comment ref="AC89" authorId="5" shapeId="0" xr:uid="{2C23F695-9498-4D71-9E6D-0C1C1B9FA411}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="264">
   <si>
     <t>Variable</t>
   </si>
@@ -1485,10 +1503,16 @@
   <threadedComment ref="S61" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{73B78FAF-01DF-42CF-AFC0-B461E966DFE4}">
     <text>Is there EVER ART Too?</text>
   </threadedComment>
+  <threadedComment ref="AA66" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{6064141D-D7C8-4528-9070-2304117F1031}">
+    <text>Is there EVER ART Too?</text>
+  </threadedComment>
   <threadedComment ref="W67" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{CE81757A-6FE0-459E-9695-6F67A4AE0587}">
     <text>Is there EVER ART Too?</text>
   </threadedComment>
   <threadedComment ref="X67" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{18FE5719-5E36-4E19-8916-BFFF1A9905CD}">
+    <text>Is there EVER ART Too?</text>
+  </threadedComment>
+  <threadedComment ref="AC89" dT="2025-06-13T09:20:36.53" personId="{7A8B2CA2-37C0-574C-B38B-29CF981A4F10}" id="{2C23F695-9498-4D71-9E6D-0C1C1B9FA411}">
     <text>Is there EVER ART Too?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1499,8 +1523,8 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" activeCellId="58" sqref="A2 A4 A5 A7 A10 A11 A13 A14:A17 A18 A22 A24 A26:A28 A30 A31 A32 A33 A34 A35 A36 A37 A40 A41 A42 A43 A44 A45 A47 A49 A51 A53 A54 A57 A58 A60 A62 A64 A66 A67 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A101 A102 A103 A104 A105 A106 A107 A108 A110"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A111" activeCellId="85" sqref="A2 A4 A5 A9 A11 A12 A14:A17 A18 A20 A21 A22 A24 A26 A27 A28 A30 A32 A31 A33 A34 A35 A36 A37 A38 A40 A41 A43 A44 A46 A48 A50 A52 A53 A55 A56 A57 A58 A62 A61 A63 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5016,15 +5040,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24693A92-5F3B-475F-94C6-792282596E6B}">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8:X71"/>
+    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7:AC95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -5035,7 +5059,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5046,7 +5070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5057,7 +5081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -5068,7 +5092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5079,7 +5103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -5093,7 +5117,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -5109,8 +5133,11 @@
       <c r="S7" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC7" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5132,8 +5159,14 @@
       <c r="X8" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5155,8 +5188,14 @@
       <c r="X9" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5178,8 +5217,14 @@
       <c r="X10" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -5201,8 +5246,14 @@
       <c r="X11" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -5224,8 +5275,14 @@
       <c r="X12" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5247,8 +5304,14 @@
       <c r="X13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -5270,8 +5333,14 @@
       <c r="X14" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -5293,8 +5362,14 @@
       <c r="X15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -5316,8 +5391,14 @@
       <c r="X16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -5339,8 +5420,14 @@
       <c r="X17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -5362,8 +5449,14 @@
       <c r="X18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -5385,8 +5478,14 @@
       <c r="X19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -5405,8 +5504,14 @@
       <c r="X20" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -5425,8 +5530,14 @@
       <c r="X21" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -5445,8 +5556,14 @@
       <c r="X22" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -5465,8 +5582,14 @@
       <c r="X23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>189</v>
       </c>
@@ -5485,8 +5608,14 @@
       <c r="X24" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -5505,8 +5634,14 @@
       <c r="X25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -5525,8 +5660,14 @@
       <c r="X26" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -5545,8 +5686,14 @@
       <c r="X27" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -5565,8 +5712,14 @@
       <c r="X28" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -5585,8 +5738,14 @@
       <c r="X29" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -5605,8 +5764,14 @@
       <c r="X30" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -5625,8 +5790,14 @@
       <c r="X31" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -5645,8 +5816,14 @@
       <c r="X32" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -5665,8 +5842,14 @@
       <c r="X33" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -5685,8 +5868,14 @@
       <c r="X34" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
@@ -5702,8 +5891,14 @@
       <c r="X35" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
@@ -5719,8 +5914,14 @@
       <c r="X36" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>30</v>
       </c>
@@ -5736,8 +5937,14 @@
       <c r="X37" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
@@ -5753,8 +5960,14 @@
       <c r="X38" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
@@ -5770,8 +5983,14 @@
       <c r="X39" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>31</v>
       </c>
@@ -5787,8 +6006,14 @@
       <c r="X40" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
         <v>29</v>
       </c>
@@ -5801,8 +6026,14 @@
       <c r="X41" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
         <v>31</v>
       </c>
@@ -5815,8 +6046,14 @@
       <c r="X42" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S43" s="2" t="s">
         <v>22</v>
       </c>
@@ -5826,8 +6063,14 @@
       <c r="X43" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S44" s="2" t="s">
         <v>116</v>
       </c>
@@ -5837,8 +6080,14 @@
       <c r="X44" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S45" s="2" t="s">
         <v>94</v>
       </c>
@@ -5848,8 +6097,14 @@
       <c r="X45" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S46" s="2" t="s">
         <v>96</v>
       </c>
@@ -5859,8 +6114,14 @@
       <c r="X46" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S47" s="2" t="s">
         <v>98</v>
       </c>
@@ -5870,8 +6131,14 @@
       <c r="X47" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S48" s="2" t="s">
         <v>100</v>
       </c>
@@ -5881,8 +6148,14 @@
       <c r="X48" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S49" s="2" t="s">
         <v>102</v>
       </c>
@@ -5892,8 +6165,14 @@
       <c r="X49" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S50" s="2" t="s">
         <v>104</v>
       </c>
@@ -5903,8 +6182,14 @@
       <c r="X50" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S51" s="2" t="s">
         <v>111</v>
       </c>
@@ -5914,8 +6199,14 @@
       <c r="X51" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S52" s="2" t="s">
         <v>112</v>
       </c>
@@ -5925,8 +6216,14 @@
       <c r="X52" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S53" s="2" t="s">
         <v>113</v>
       </c>
@@ -5936,8 +6233,14 @@
       <c r="X53" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S54" s="2" t="s">
         <v>114</v>
       </c>
@@ -5947,8 +6250,14 @@
       <c r="X54" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S55" s="2" t="s">
         <v>115</v>
       </c>
@@ -5958,8 +6267,14 @@
       <c r="X55" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S56" s="2" t="s">
         <v>165</v>
       </c>
@@ -5969,8 +6284,14 @@
       <c r="X56" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S57" s="2" t="s">
         <v>26</v>
       </c>
@@ -5980,8 +6301,14 @@
       <c r="X57" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S58" s="2" t="s">
         <v>25</v>
       </c>
@@ -5991,8 +6318,14 @@
       <c r="X58" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S59" s="2" t="s">
         <v>27</v>
       </c>
@@ -6002,8 +6335,14 @@
       <c r="X59" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S60" s="2" t="s">
         <v>30</v>
       </c>
@@ -6013,8 +6352,14 @@
       <c r="X60" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S61" s="2" t="s">
         <v>83</v>
       </c>
@@ -6024,8 +6369,14 @@
       <c r="X61" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S62" s="2" t="s">
         <v>28</v>
       </c>
@@ -6035,8 +6386,14 @@
       <c r="X62" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="63" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S63" s="2" t="s">
         <v>29</v>
       </c>
@@ -6046,8 +6403,14 @@
       <c r="X63" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="AA63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="19:29" x14ac:dyDescent="0.25">
       <c r="S64" s="2" t="s">
         <v>31</v>
       </c>
@@ -6057,61 +6420,229 @@
       <c r="X64" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W66" s="2" t="s">
         <v>30</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="X67" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W69" s="2" t="s">
         <v>29</v>
       </c>
       <c r="X69" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA69" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W70" s="2" t="s">
         <v>233</v>
       </c>
       <c r="X70" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="71" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="AA70" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="X71" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC72" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC73" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC74" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC75" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC76" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC77" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC78" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC79" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="AC80" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC81" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC82" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC83" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC84" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC85" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC87" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC88" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC89" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC90" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC91" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC92" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC93" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC94" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC95" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
